--- a/histologicalslides/BleuAlcyan/resultAUCalldata.xlsx
+++ b/histologicalslides/BleuAlcyan/resultAUCalldata.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="resultAUCNewdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>AUCred_normalized</t>
   </si>
@@ -121,18 +121,6 @@
   </si>
   <si>
     <t>exp</t>
-  </si>
-  <si>
-    <t>mean KI</t>
-  </si>
-  <si>
-    <t>mean WT</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>idem without WARN</t>
   </si>
 </sst>
 </file>
@@ -939,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,198 +1997,6 @@
       </c>
       <c r="L28">
         <v>1357.920474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <f>AVERAGE(E2:E18)</f>
-        <v>7765.4980235927233</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:L30" si="0">AVERAGE(F2:F18)</f>
-        <v>1877.576153585632</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2330.404900479045</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>2784.3634141164889</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>2650.7297088795458</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>339.13673848073489</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>647.29399661381342</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>891.14541853520041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <f>AVERAGE(E19:E28)</f>
-        <v>5244.7810561760907</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:L31" si="1">AVERAGE(F19:F28)</f>
-        <v>1105.3132298694168</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>1856.4943235872711</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>1766.953111939014</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>1621.3336208498049</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>199.49639269764018</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>355.33881468551556</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>550.47802244626132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32">
-        <f>E30/E31</f>
-        <v>1.4806143365028201</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32:L32" si="2">F30/F31</f>
-        <v>1.6986824212784022</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>1.2552717618743077</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>1.575799264453029</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="2"/>
-        <v>1.6349070140728925</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>1.6999642644904152</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>1.8216247982553948</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
-        <v>1.6188573970220503</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34">
-        <f>AVERAGE(G4,G5,G6,G7,G9,G10,G11,G12,G13,G14,G15,G16)</f>
-        <v>2470.7610244270822</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:L34" si="3">AVERAGE(H4,H5,H6,H7,H9,H10,H11,H12,H13,H14,H15,H16)</f>
-        <v>2764.2862217169404</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
-        <v>2612.3026604953634</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>310.93262542654685</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
-        <v>671.5379745263823</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="3"/>
-        <v>823.31398840732891</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G35">
-        <f>G31</f>
-        <v>1856.4943235872711</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35:L35" si="4">H31</f>
-        <v>1766.953111939014</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="4"/>
-        <v>1621.3336208498049</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>199.49639269764018</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>355.33881468551556</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="4"/>
-        <v>550.47802244626132</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G36">
-        <f>G34/G35</f>
-        <v>1.330874537581604</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:L36" si="5">H34/H35</f>
-        <v>1.5644366582446978</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="5"/>
-        <v>1.6112061249467908</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>1.5585877078880377</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>1.8898525766759016</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>1.495634620885709</v>
       </c>
     </row>
   </sheetData>
